--- a/Mcap2020/Data/NCBI Upload/McapOntogeny_MIMS.me.host-associated.5.0.xlsx
+++ b/Mcap2020/Data/NCBI Upload/McapOntogeny_MIMS.me.host-associated.5.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/EarlyLifeHistory_Energetics/Mcap2020/Data/NCBI Upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1852A082-5A68-A348-81CA-21D9FFEB2100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D746DD40-9BB6-9F4F-85EC-34141C04041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-65600" yWindow="500" windowWidth="23220" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29120" yWindow="840" windowWidth="23220" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIMS.me.host-associated.5.0" sheetId="1" r:id="rId1"/>
@@ -579,15 +579,28 @@
         <r>
           <rPr>
             <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A unique identifier of the omics-enabled observatory (or comparable time series) your data derives from. This identifier should be provided by the OMICON ontology; if you require a new identifier for your time series, contact the ontology's developers. Information is available here: https://github.com/GLOMICON/omicon. This field is only applicable to records which derive from an omics time-series or observatory.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A unique identifier of the omics-enabled observatory (or comparable time series) your data derives from. This identifier should be provided by the OMICON ontology; if you require a new identifier for your time series, contact the ontology's developers. Information is available here: https://github.com/GLOMICON/omicon. This field is only applicable to records which derive from an omics time-series or observatory.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AU12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+          <t>total count of any organism per gram or volume of sample,should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -596,11 +609,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample,should include name of organism followed by count; can include multiple organism counts</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AV12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+          <t>oxygenation status of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -609,11 +622,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>oxygenation status of sample</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary publication or genome report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -622,11 +648,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
         <r>
           <rPr>
@@ -635,11 +687,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Primary publication or genome report</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AY12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -648,58 +700,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Aerobic or anaerobic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AZ12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Method or device employed for collecting sample</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BA12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Processing applied to the sample during or after isolation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BC12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Amount or size of sample (volume, mass or area) that was collected</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Filtering pore size used in sample preparation, e.g., 0-0.22 micrometer</t>
         </r>
       </text>
@@ -709,7 +709,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -722,7 +722,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -748,7 +748,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="181">
   <si>
     <r>
       <rPr>
@@ -1525,6 +1525,45 @@
   </si>
   <si>
     <t>21.448889N, 157.795833W</t>
+  </si>
+  <si>
+    <t>Embryo</t>
+  </si>
+  <si>
+    <t>Larvae</t>
+  </si>
+  <si>
+    <t>Fertilized Egg</t>
+  </si>
+  <si>
+    <t>Metamorphosed Polyp</t>
+  </si>
+  <si>
+    <t>Attached Recruit</t>
+  </si>
+  <si>
+    <t>1 hour post-fertilization</t>
+  </si>
+  <si>
+    <t>38 hours post-fertilization</t>
+  </si>
+  <si>
+    <t>65 hours post-fertilization</t>
+  </si>
+  <si>
+    <t>93 hours post-fertilization</t>
+  </si>
+  <si>
+    <t>163 hours post-fertilization</t>
+  </si>
+  <si>
+    <t>231 hours post-fertilization</t>
+  </si>
+  <si>
+    <t>183 hours post-fertilization</t>
+  </si>
+  <si>
+    <t>5 hours post-fertilization</t>
   </si>
 </sst>
 </file>
@@ -2028,9 +2067,9 @@
   <dimension ref="A1:BJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2371,13 +2410,16 @@
         <v>167</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="AI13" s="8" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH13" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="BJ13" s="1" t="s">
         <v>126</v>
@@ -2418,13 +2460,16 @@
         <v>167</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="AI14" s="8" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH14" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="BJ14" s="1" t="s">
         <v>126</v>
@@ -2465,13 +2510,16 @@
         <v>167</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="AI15" s="8" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="BJ15" s="1" t="s">
         <v>126</v>
@@ -2512,13 +2560,16 @@
         <v>167</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="AI16" s="8" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH16" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="BJ16" s="1" t="s">
         <v>126</v>
@@ -2559,13 +2610,16 @@
         <v>167</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH17" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="BJ17" s="1" t="s">
         <v>126</v>
@@ -2606,13 +2660,16 @@
         <v>167</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="AP18" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH18" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="BJ18" s="1" t="s">
         <v>126</v>
@@ -2653,13 +2710,16 @@
         <v>167</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH19" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="BJ19" s="1" t="s">
         <v>126</v>
@@ -2700,13 +2760,16 @@
         <v>167</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AI20" s="8" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="AP20" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH20" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="BJ20" s="1" t="s">
         <v>126</v>
@@ -2747,13 +2810,16 @@
         <v>167</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="AI21" s="8" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH21" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="BJ21" s="1" t="s">
         <v>126</v>
@@ -2794,13 +2860,16 @@
         <v>167</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="AI22" s="8" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="AP22" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH22" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="BJ22" s="1" t="s">
         <v>126</v>
@@ -2841,13 +2910,16 @@
         <v>167</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="AI23" s="8" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="AP23" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH23" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="BJ23" s="1" t="s">
         <v>126</v>
@@ -2888,13 +2960,16 @@
         <v>167</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="AI24" s="8" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="AP24" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH24" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="BJ24" s="1" t="s">
         <v>126</v>
@@ -2935,13 +3010,16 @@
         <v>167</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="AI25" s="8" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="AP25" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH25" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="BJ25" s="1" t="s">
         <v>126</v>
@@ -2982,13 +3060,16 @@
         <v>167</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="AI26" s="8" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="AP26" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH26" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="BJ26" s="1" t="s">
         <v>126</v>
@@ -3029,13 +3110,16 @@
         <v>167</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="AI27" s="8" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="AP27" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH27" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="BJ27" s="1" t="s">
         <v>126</v>
@@ -3076,13 +3160,16 @@
         <v>167</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="AI28" s="8" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AP28" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH28" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="BJ28" s="1" t="s">
         <v>126</v>
@@ -3123,13 +3210,16 @@
         <v>167</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="AI29" s="8" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="AP29" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH29" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="BJ29" s="1" t="s">
         <v>126</v>
@@ -3170,13 +3260,16 @@
         <v>167</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="AI30" s="8" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="AP30" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH30" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="BJ30" s="1" t="s">
         <v>126</v>
@@ -3217,13 +3310,16 @@
         <v>167</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="AI31" s="8" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="AP31" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH31" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="BJ31" s="1" t="s">
         <v>126</v>
@@ -3264,13 +3360,16 @@
         <v>167</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="AI32" s="8" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="AP32" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH32" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="BJ32" s="1" t="s">
         <v>126</v>
@@ -3311,13 +3410,16 @@
         <v>167</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="AI33" s="8" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AP33" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH33" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="BJ33" s="1" t="s">
         <v>126</v>
@@ -3358,13 +3460,16 @@
         <v>167</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="AI34" s="8" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AP34" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH34" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="BJ34" s="1" t="s">
         <v>126</v>
@@ -3405,13 +3510,16 @@
         <v>167</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="AI35" s="8" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="AP35" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH35" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="BJ35" s="1" t="s">
         <v>126</v>
@@ -3452,13 +3560,16 @@
         <v>167</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="AI36" s="8" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AP36" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH36" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="BJ36" s="1" t="s">
         <v>126</v>
@@ -3499,13 +3610,16 @@
         <v>167</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="AI37" s="8" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AP37" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH37" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="BJ37" s="1" t="s">
         <v>126</v>
@@ -3546,13 +3660,16 @@
         <v>167</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="AI38" s="8" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="AP38" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH38" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="BJ38" s="1" t="s">
         <v>126</v>
@@ -3593,13 +3710,16 @@
         <v>167</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="AI39" s="8" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="AP39" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH39" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="BJ39" s="1" t="s">
         <v>126</v>
@@ -3640,13 +3760,16 @@
         <v>167</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="AI40" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="AP40" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH40" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="BJ40" s="1" t="s">
         <v>126</v>
@@ -3687,13 +3810,16 @@
         <v>167</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AI41" s="8" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="AP41" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH41" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="BJ41" s="1" t="s">
         <v>126</v>
@@ -3734,13 +3860,16 @@
         <v>167</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="AI42" s="8" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AP42" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH42" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="BJ42" s="1" t="s">
         <v>126</v>
@@ -3781,13 +3910,16 @@
         <v>167</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="AI43" s="8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AP43" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH43" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="BJ43" s="1" t="s">
         <v>126</v>
@@ -3828,13 +3960,16 @@
         <v>167</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="AI44" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AP44" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH44" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="BJ44" s="1" t="s">
         <v>126</v>
@@ -3875,13 +4010,16 @@
         <v>167</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AI45" s="8" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AP45" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH45" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="BJ45" s="1" t="s">
         <v>126</v>
@@ -3922,13 +4060,16 @@
         <v>167</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="AI46" s="8" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="AP46" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH46" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="BJ46" s="1" t="s">
         <v>126</v>
@@ -3969,13 +4110,16 @@
         <v>167</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="AI47" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AP47" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH47" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="BJ47" s="1" t="s">
         <v>126</v>
@@ -4016,13 +4160,16 @@
         <v>167</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="AI48" s="8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AP48" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH48" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="BJ48" s="1" t="s">
         <v>126</v>
@@ -4063,13 +4210,16 @@
         <v>167</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="AI49" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AP49" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH49" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="BJ49" s="1" t="s">
         <v>126</v>
@@ -4110,13 +4260,16 @@
         <v>167</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="AI50" s="8" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AP50" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH50" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="BJ50" s="1" t="s">
         <v>126</v>
@@ -4157,13 +4310,16 @@
         <v>167</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AI51" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AP51" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="BH51" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="BJ51" s="1" t="s">
         <v>126</v>
